--- a/official_results/simple_CNN_results.xlsx
+++ b/official_results/simple_CNN_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,69 +434,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Experiment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Split_id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Optimizer</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>nº samples</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Batch size</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Epochs</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Resolution</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Variables</t>
         </is>
       </c>
     </row>
@@ -510,7 +527,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1664 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -541,6 +558,11 @@
       </c>
       <c r="M2" t="n">
         <v>64</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -565,7 +587,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1664 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -596,6 +618,11 @@
       </c>
       <c r="M3" t="n">
         <v>64</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -620,7 +647,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1664 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -651,6 +678,11 @@
       </c>
       <c r="M4" t="n">
         <v>64</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -675,7 +707,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1664 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -706,6 +738,11 @@
       </c>
       <c r="M5" t="n">
         <v>64</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -730,7 +767,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1664 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -761,6 +798,11 @@
       </c>
       <c r="M6" t="n">
         <v>64</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -785,7 +827,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>832 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -816,6 +858,11 @@
       </c>
       <c r="M7" t="n">
         <v>64</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -840,7 +887,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>832 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -871,6 +918,11 @@
       </c>
       <c r="M8" t="n">
         <v>64</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -895,7 +947,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>832 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -926,6 +978,11 @@
       </c>
       <c r="M9" t="n">
         <v>64</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -950,7 +1007,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>832 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -981,6 +1038,11 @@
       </c>
       <c r="M10" t="n">
         <v>64</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1005,7 +1067,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>832 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1036,6 +1098,11 @@
       </c>
       <c r="M11" t="n">
         <v>64</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1127,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>448 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1091,6 +1158,11 @@
       </c>
       <c r="M12" t="n">
         <v>64</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1115,7 +1187,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>448 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1146,6 +1218,11 @@
       </c>
       <c r="M13" t="n">
         <v>64</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1247,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>448 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1201,6 +1278,11 @@
       </c>
       <c r="M14" t="n">
         <v>64</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1225,7 +1307,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>448 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1256,6 +1338,11 @@
       </c>
       <c r="M15" t="n">
         <v>64</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1280,7 +1367,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>448 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1311,6 +1398,11 @@
       </c>
       <c r="M16" t="n">
         <v>64</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1335,7 +1427,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>256 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1366,6 +1458,11 @@
       </c>
       <c r="M17" t="n">
         <v>64</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1390,7 +1487,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>256 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1421,6 +1518,11 @@
       </c>
       <c r="M18" t="n">
         <v>64</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1445,7 +1547,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>256 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1476,6 +1578,11 @@
       </c>
       <c r="M19" t="n">
         <v>64</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1607,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>256 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1531,6 +1638,11 @@
       </c>
       <c r="M20" t="n">
         <v>64</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1555,7 +1667,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>256 images</t>
+          <t>826 images</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1585,6 +1697,1941 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>64</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.945304699639528</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>826 images</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15:02:43</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>311.98</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>64</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.690602301404383</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15:07:54</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>310.83</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.913294037741452</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>94 of 300</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15:11:53</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>238.39</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.702104417844374</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>32</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>101 of 300</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15:16:10</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>256.95</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.718179035175366</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>32</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>109 of 300</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>15:20:47</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>277.09</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.361174464637268</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>64</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>145 of 300</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>15:25:15</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.757274921528236</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>64</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>139 of 300</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15:29:30</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>254.65</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.383725349957563</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>64</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>186 of 300</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15:35:13</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>342.36</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.415124345317937</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>64</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>170 of 300</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>15:40:25</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>311.85</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.434194770429798</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>64</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>15:44:08</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>222.89</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.374237021775212</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>106 of 300</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>15:46:45</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>156.84</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.673221207125514</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>128</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>114 of 300</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15:49:34</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>168.79</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.388893039231996</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>128</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>15:52:35</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>180.56</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.49444506362578</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>128</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>127 of 300</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>15:55:43</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>188.09</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.553078153849798</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>109 of 300</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>15:58:24</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>160.34</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.333628385712929</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>256</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>131 of 300</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>16:01:14</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>170.31</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.880829268073649</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>256</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>144 of 300</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>16:04:21</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>186.83</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.46497352314283</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>256</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>190 of 300</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>16:08:31</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>249.67</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.974043887890525</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>256</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>61 of 300</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>16:09:50</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.678396791459095</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>256</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>148 of 300</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>16:13:04</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>193.71</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.235466094828093</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>128</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>148 of 300</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>13:54:44</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>233.76</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.969628688126924</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>128</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>105 of 300</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>13:57:28</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>163.76</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.389632089129555</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>128</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>114 of 300</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>14:00:25</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>177.07</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.411888276955831</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>128</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>198 of 300</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>14:05:38</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>312.11</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.484907251410811</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>128</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>102 of 300</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>14:08:19</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>160.91</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.255284997578296</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>128</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>14:19:02</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>172.97</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.699491437676418</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>128</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>14:22:08</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>186.36</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.372560435566676</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>128</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>84 of 300</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>14:24:55</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>166.35</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.262045317651864</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>128</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>95 of 300</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>14:25:52</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.443112974096614</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>128</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>117 of 300</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>14:28:47</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>231.62</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.637911750232827</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>128</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>98 of 300</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>14:29:04</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>191.69</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.436287250097157</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>128</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>86 of 300</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>14:31:54</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>169.53</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>46</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.439388684885579</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>128</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>14:32:00</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>193.38</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>48</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.428731684094524</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>128</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>124 of 300</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>14:35:59</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>244.48</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>48</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.353520362017064</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1568 images + 50176 augmented</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>128</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>119 of 300</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>14:39:56</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>236.98</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>64</v>
       </c>
     </row>

--- a/official_results/simple_CNN_results.xlsx
+++ b/official_results/simple_CNN_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,6 +1819,11 @@
       <c r="M23" t="n">
         <v>64</v>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1874,6 +1879,11 @@
       <c r="M24" t="n">
         <v>64</v>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1929,6 +1939,11 @@
       <c r="M25" t="n">
         <v>64</v>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1984,6 +1999,11 @@
       <c r="M26" t="n">
         <v>64</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2039,6 +2059,11 @@
       <c r="M27" t="n">
         <v>64</v>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2094,6 +2119,11 @@
       <c r="M28" t="n">
         <v>64</v>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2149,6 +2179,11 @@
       <c r="M29" t="n">
         <v>64</v>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2204,6 +2239,11 @@
       <c r="M30" t="n">
         <v>64</v>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2259,6 +2299,11 @@
       <c r="M31" t="n">
         <v>64</v>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2314,6 +2359,11 @@
       <c r="M32" t="n">
         <v>64</v>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2369,6 +2419,11 @@
       <c r="M33" t="n">
         <v>64</v>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2424,6 +2479,11 @@
       <c r="M34" t="n">
         <v>64</v>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2479,6 +2539,11 @@
       <c r="M35" t="n">
         <v>64</v>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2534,6 +2599,11 @@
       <c r="M36" t="n">
         <v>64</v>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2589,6 +2659,11 @@
       <c r="M37" t="n">
         <v>64</v>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2644,6 +2719,11 @@
       <c r="M38" t="n">
         <v>64</v>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2699,6 +2779,11 @@
       <c r="M39" t="n">
         <v>64</v>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2754,6 +2839,11 @@
       <c r="M40" t="n">
         <v>64</v>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2809,6 +2899,11 @@
       <c r="M41" t="n">
         <v>64</v>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2864,6 +2959,11 @@
       <c r="M42" t="n">
         <v>64</v>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2919,6 +3019,11 @@
       <c r="M43" t="n">
         <v>64</v>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2974,6 +3079,11 @@
       <c r="M44" t="n">
         <v>64</v>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3029,6 +3139,11 @@
       <c r="M45" t="n">
         <v>64</v>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3084,6 +3199,11 @@
       <c r="M46" t="n">
         <v>64</v>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3139,6 +3259,11 @@
       <c r="M47" t="n">
         <v>64</v>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3194,6 +3319,11 @@
       <c r="M48" t="n">
         <v>64</v>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3249,6 +3379,11 @@
       <c r="M49" t="n">
         <v>64</v>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3304,6 +3439,11 @@
       <c r="M50" t="n">
         <v>64</v>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3359,6 +3499,11 @@
       <c r="M51" t="n">
         <v>64</v>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3414,6 +3559,11 @@
       <c r="M52" t="n">
         <v>64</v>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3469,6 +3619,11 @@
       <c r="M53" t="n">
         <v>64</v>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3524,6 +3679,11 @@
       <c r="M54" t="n">
         <v>64</v>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3579,6 +3739,11 @@
       <c r="M55" t="n">
         <v>64</v>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3633,6 +3798,8076 @@
       </c>
       <c r="M56" t="n">
         <v>64</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>126</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.621458923321922</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>64</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>161 of 300</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>17:32:24</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>258.81</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>64</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>126</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.446770940134952</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>32</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>89 of 300</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>17:33:40</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>128</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>126</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.659008400318664</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>32</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>193 of 300</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>17:35:50</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>574.84</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>32</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>126</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.482799630280628</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>64</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>149 of 300</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>17:36:24</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>334.04</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>64</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>126</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.215199088288335</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>32</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>17:36:34</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>173.51</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>128</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>126</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.567341829914768</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>32</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>60 of 300</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>17:39:39</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>183.41</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>128</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>126</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.763472827510271</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>64</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>17:41:20</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>536.3099999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>64</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>126</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.819815751918701</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>64</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>136 of 300</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>17:41:29</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>304.37</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>64</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>126</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.00746853785784</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>32</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>151 of 300</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>17:43:35</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>464.47</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>32</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>131</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.221332012618766</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>142 of 300</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>17:44:08</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>326.94</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>64</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>126</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.684230354435496</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>64</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>116 of 300</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>17:44:39</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>197.58</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>64</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>126</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.632939623729841</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>32</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>97 of 300</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>17:44:43</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>302.74</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>128</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>126</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.407851479585947</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>64</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>73 of 300</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>17:46:41</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>121.44</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>64</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>126</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.500278999031088</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>64</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>183 of 300</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>17:48:30</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>420.66</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>64</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>126</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.765235853493094</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>32</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>81 of 300</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>17:48:56</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>252.21</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>128</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>126</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.629206037896883</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>32</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>17:49:48</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>373.09</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>32</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>131</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.799855319478378</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>64</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>169 of 300</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>17:50:38</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>389.74</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>64</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>126</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.737864386677028</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>64</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>170 of 300</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>17:51:40</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>299.46</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>64</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>126</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4.169833540494061</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>64</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>17:53:38</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>281.31</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>128</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>126</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.598381583382254</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>128</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>83 of 300</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>17:53:48</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>126.57</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>64</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>126</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4.560397055774827</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>64</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>153 of 300</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>17:54:24</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>64</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>126</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5.215319810941315</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>128</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>109 of 300</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>17:56:37</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>168.61</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>64</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>126</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.586710977175116</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>32</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>143 of 300</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>17:57:16</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>447.69</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>32</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>126</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.846542299308735</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>64</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>110 of 300</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>17:57:52</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>252.93</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>128</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>131</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.369244862639396</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>64</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>223 of 300</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>17:59:32</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>533.3200000000001</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>64</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>126</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.439370412362903</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>64</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>135 of 300</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>17:59:35</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>311.08</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>64</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>126</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.703733309367071</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>128</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>136 of 300</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>18:00:10</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>212.51</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>64</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>126</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.877424520682704</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>128</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>18:02:05</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>115.24</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>64</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>126</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.409363144216509</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>64</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>132 of 300</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>18:02:56</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>302.71</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>128</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>126</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.927593797413774</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>128</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>79 of 300</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>18:04:04</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>117.94</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>64</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>131</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.403345237384207</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>64</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>177 of 300</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>18:06:03</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>390.36</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>64</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>126</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.359010639487606</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>64</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>140 of 300</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>18:08:06</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>308.62</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>128</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>126</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.665801455913318</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>32</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>210 of 300</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>18:08:08</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>651.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>32</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>131</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.524174257448609</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>64</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>158 of 300</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>18:11:42</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>339.12</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>64</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>126</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.477221245421562</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>64</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>121 of 300</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>18:12:29</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>262.11</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>128</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>126</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.109246375868425</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>128</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>18:14:40</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>128</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>126</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.785327791031114</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>128</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>63 of 300</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>18:16:31</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>110.07</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>128</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>126</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.524199606828911</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>64</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>229 of 300</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>18:16:35</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>506.11</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>32</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>126</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.34664342352771</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>128</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>18:18:45</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>128</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>126</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.318129086377245</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>128</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>148 of 300</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>18:23:07</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>261.06</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>128</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>126</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.856312885906464</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>64</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>196 of 300</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>18:23:42</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>427.02</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>32</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>126</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.402461862851596</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>128</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>134 of 300</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>18:27:04</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>235.67</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>128</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>126</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.205477722810441</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>256</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>103 of 300</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>18:29:48</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>162.89</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>128</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>126</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.732890735643721</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>256</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>95 of 300</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>18:32:21</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>152.22</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>128</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>126</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.552620039048419</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>64</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>266 of 300</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>18:33:41</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>598.53</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>32</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>126</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.205570295313759</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>256</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>168 of 300</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>18:36:56</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>273.87</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>128</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>126</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.334068774337421</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>256</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>119 of 300</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>18:40:07</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>190.13</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>128</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>126</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.510752034136841</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>64</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>218 of 300</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>18:41:44</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>482.91</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>32</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>126</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.484510700582539</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>256</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>99 of 300</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>18:42:44</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>156.38</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>128</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>126</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.634850564460367</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>64</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>223 of 300</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>18:49:15</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>449.97</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>32</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>126</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.71330409315731</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>128</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>184 of 300</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>18:54:08</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>292.29</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>32</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>126</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.75533529847328</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>128</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>186 of 300</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>18:59:04</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>295.66</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>32</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>126</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.616462810485306</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>128</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>188 of 300</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>19:04:05</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>32</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>126</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.862262027616655</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>128</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>174 of 300</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>19:08:41</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>275.63</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>32</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>126</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.524956154876762</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>128</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>211 of 300</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>19:14:22</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>340.65</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>32</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>126</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.762391432393582</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>256</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>19:16:44</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>141.76</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>32</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>126</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.857539724130627</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>256</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>19:24:09</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>445.26</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>32</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>126</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.681830028094243</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>256</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>184 of 300</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>19:28:29</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>258.83</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>32</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>126</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.974126048176345</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>256</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>82 of 300</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>19:30:19</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>110.39</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>32</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>126</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.88939880277692</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>256</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>19:32:29</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>129.11</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>32</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>186</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.487146787535356</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>32</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>107 of 300</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>14:27:11</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>295.17</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>64</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.745624865899553</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>128</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>84 of 300</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>15:38:47</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>127.41</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>128</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.978199902032202</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>128</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>15:42:01</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>186.69</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>128</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>117</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.754836581827067</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>128</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>91 of 300</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>15:44:26</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>136.56</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>128</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>117</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.4358170153495</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>128</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>15:52:44</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>490.63</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>128</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>117</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.064125119350631</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>128</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>15:54:44</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>111.96</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>128</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.492008430895728</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>64</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>120 of 300</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>15:59:50</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>192.84</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>128</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.130374468345626</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>64</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>16:01:19</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>88.27</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>128</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>122</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.632235752412126</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>64</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>16:09:54</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>514.09</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>128</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.163678089060238</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>128</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>16:13:36</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>152.54</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>128</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.114295741200195</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>128</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>100 of 300</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>16:14:06</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>200.97</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>128</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>122</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.028776992406145</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>64</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>187 of 300</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>16:15:32</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>336.27</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>128</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>125</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.79315358817632</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>128</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>16:15:48</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>130.86</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>128</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>125</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.730995662625167</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>128</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>70 of 300</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>16:16:25</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>137.96</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>128</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>125</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.432616202083884</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>3</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>128</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>56 of 300</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>16:18:15</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>108.71</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>128</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>125</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.392354279091538</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>128</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>76 of 300</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>16:18:20</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>128</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>125</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.399617505768979</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>128</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>106 of 300</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>16:21:53</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>217.81</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>128</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.417383773413425</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>128</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>16:22:28</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>165.67</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Physics_guided</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>128</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>125</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.278509196904708</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>128</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>134 of 300</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>16:23:01</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>128</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>132</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.771223864928566</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>128</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>84 of 300</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>16:25:23</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>173.97</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Physics_guided</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>128</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>125</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.461882757523899</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>128</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>103 of 300</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>16:25:26</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>211.75</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>RMSE_focal</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>128</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>122</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.692748191191558</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>64</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>296 of 300</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>16:25:38</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>604.5599999999999</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>128</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>125</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.349151371388677</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>128</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>120 of 300</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>16:27:01</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>128</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>132</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.442490239855911</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>128</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>71 of 300</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>16:27:36</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>131.41</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Physics_guided</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>128</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>138</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.269219501295648</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>128</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>16:28:52</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>129.69</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>128</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>138</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.769582492965409</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>128</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>42 of 300</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>16:30:11</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>128</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>132</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.51048090819633</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>128</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>118 of 300</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>16:31:12</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>214.81</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Physics_guided</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>128</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>138</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.419232956609497</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>128</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>16:32:19</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>128</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>132</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.792072297555507</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>128</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>55 of 300</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>16:32:50</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>97.09</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Physics_guided</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>128</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>LST</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>138</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.625800913288745</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>128</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>82 of 300</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>16:34:49</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>148.45</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>128</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>138</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.377332806544151</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>128</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>84 of 300</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>16:37:20</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>128</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.119670522095564</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>128</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>16:41:54</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>123.48</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>128</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.601444371627221</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>128</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>16:44:00</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>123</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>128</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>147</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.201986288207325</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>128</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>72 of 300</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>16:46:31</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>147.87</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>128</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>147</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.400206826860479</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>128</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>68 of 300</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>16:48:52</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>138.33</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>128</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>147</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.339448835198979</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>128</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>49 of 300</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>16:50:35</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>100.45</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>128</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5177.780615620823</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>128</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>61 of 300</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>15:40:46</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>358.7054001783889</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>128</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>80 of 300</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>16:39:00</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>164.44</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1157.690422274216</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>128</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>53 of 300</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>16:40:50</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>107.43</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>153</v>
+      </c>
+      <c r="B156" t="n">
+        <v>381.7078070735373</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>128</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>99 of 300</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>16:44:24</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>210.93</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.309896619884694</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>128</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>16:45:01</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>118.11</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>128</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>155</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.414932185323791</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>128</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>16:45:25</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>128</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>155</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.781470509247796</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>128</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>45 of 300</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>16:46:31</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>128</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>155</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.486983212187435</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>128</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>42 of 300</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>16:47:04</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>95.76000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>128</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>155</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.45484039910085</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>128</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>16:48:09</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>96.72</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>128</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>153</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1100.086767068197</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>128</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>101 of 300</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>16:48:23</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>236.06</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>155</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.375075505246369</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>128</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>63 of 300</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>16:49:35</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>148.74</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>128</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>153</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2961.1962220576</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>128</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>44 of 300</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>16:50:09</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>155</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.494413288590263</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>128</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>65 of 300</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>16:50:16</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>125.75</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>128</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>155</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.345637190510523</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>128</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>78 of 300</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>16:52:27</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>168.32</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>128</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>155</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.435396456622014</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>128</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>79 of 300</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>16:52:46</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>147.91</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>128</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>LST + NDVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>155</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.385099158492</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>128</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>16:54:05</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>RMSE_sensitive</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>128</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>All Image Features</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.540688332533288</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1081 images</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>128</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>11:13:04</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>143.05</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.372569027187788</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1405 images</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>128</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>58 of 300</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>11:13:10</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>169.04</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>168</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.708490121456505</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1059 images</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>128</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>58 of 300</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>11:15:22</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>137.07</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>168</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.692729716032072</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1359 images</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>128</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>11:16:15</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>170.4</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>168</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.585445551799398</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>3</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1081 images</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>128</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>60 of 300</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>11:17:52</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>145.47</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>168</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.860531927492842</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1405 images</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>128</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>49 of 300</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>11:18:57</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>155.72</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>168</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.571830492295404</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>4</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1026 images</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>128</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>85 of 300</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>11:21:14</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>197.68</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>168</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.247680716221982</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1290 images</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>128</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>11:21:21</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>139.14</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>168</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.62796572071413</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>982 images</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>128</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>11:23:43</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>168</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.668050280656034</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>5</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1198 images</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>128</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>69 of 300</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>11:24:20</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>174.05</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.200692547949141</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1729 images</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>128</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>11:43:04</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>161.04</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.362841223415923</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1659 images</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>128</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>74 of 300</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>11:47:06</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>239.51</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>178</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.79730987903856</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1729 images</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>128</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>49 of 300</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>11:49:56</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>167.92</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>178</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.704570226403352</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>4</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1554 images</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>128</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>54 of 300</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>11:52:45</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>167.34</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>178</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.789875905354836</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>5</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1414 images</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>128</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>11:55:50</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>182.93</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.21013508908602</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4866 images, all augmented</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>128</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>56 of 300</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>13:56:01</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>507.44</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.576048652201752</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4854 images, all augmented</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>128</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>43 of 300</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>14:02:36</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>183</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.495413425537685</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4866 images, all augmented</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>128</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>14:10:16</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>451.03</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>183</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.306351824963612</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>4</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4836 images, all augmented</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>128</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>46 of 300</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>14:17:15</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>183</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.541492284425008</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>5</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4812 images, all augmented</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>128</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>52 of 300</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>14:25:10</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>468.29</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.83491240283952</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>24330 images, all augmented 5x</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>128</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>15:24:34</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1607.71</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.301042754355564</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>24270 images, all augmented 5x</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>128</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>35 of 300</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>15:50:07</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1510.91</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>188</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.877459546753077</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>24330 images, all augmented 5x</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>128</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>40 of 300</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>16:19:24</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1733.85</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>188</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.182342040448457</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>24180 images, all augmented 5x</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>128</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>41 of 300</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>16:49:29</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1780.49</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>188</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.873706047774039</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>24060 images, all augmented 5x</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>128</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>42 of 300</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>17:19:56</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1803.87</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
